--- a/Team Project Prokom/Data Barang.xlsx
+++ b/Team Project Prokom/Data Barang.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\TI SMT 2\Tugas\Team project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tugas projek\Team Project Prokom\Program-Kasir\Team Project Prokom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B653BF5-323E-4CEA-8397-5FF4FFFB25AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AB3D70-9798-4B4D-8ED4-2609DCABA468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{A1F2618D-71ED-4FF9-B3D3-CDFB7945C130}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A1F2618D-71ED-4FF9-B3D3-CDFB7945C130}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Gula 1 kg</t>
   </si>
@@ -94,6 +94,51 @@
   </si>
   <si>
     <t>Harga</t>
+  </si>
+  <si>
+    <t>sunlight</t>
+  </si>
+  <si>
+    <t>pepsodent</t>
+  </si>
+  <si>
+    <t>laurier softex</t>
+  </si>
+  <si>
+    <t>baygon</t>
+  </si>
+  <si>
+    <t>tisu</t>
+  </si>
+  <si>
+    <t>Vixal</t>
+  </si>
+  <si>
+    <t>soklin</t>
+  </si>
+  <si>
+    <t>handwash</t>
+  </si>
+  <si>
+    <t>kit</t>
+  </si>
+  <si>
+    <t>alkaline</t>
+  </si>
+  <si>
+    <t>handsanitizer</t>
+  </si>
+  <si>
+    <t>sensodyne</t>
+  </si>
+  <si>
+    <t>closeup</t>
+  </si>
+  <si>
+    <t>Nuvo</t>
+  </si>
+  <si>
+    <t>garnier men</t>
   </si>
 </sst>
 </file>
@@ -448,20 +493,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA49A3C-786C-4662-801F-CFC8870EDE67}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -472,7 +517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>111</v>
       </c>
@@ -483,7 +528,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>112</v>
       </c>
@@ -494,7 +539,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>113</v>
       </c>
@@ -505,7 +550,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>114</v>
       </c>
@@ -516,7 +561,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>115</v>
       </c>
@@ -527,7 +572,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>116</v>
       </c>
@@ -538,7 +583,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>117</v>
       </c>
@@ -549,7 +594,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>118</v>
       </c>
@@ -560,7 +605,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>119</v>
       </c>
@@ -571,7 +616,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>120</v>
       </c>
@@ -582,7 +627,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>121</v>
       </c>
@@ -593,7 +638,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>122</v>
       </c>
@@ -604,7 +649,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>123</v>
       </c>
@@ -615,7 +660,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>124</v>
       </c>
@@ -623,10 +668,10 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>34000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>125</v>
       </c>
@@ -637,7 +682,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>126</v>
       </c>
@@ -648,7 +693,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>127</v>
       </c>
@@ -656,10 +701,10 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>128</v>
       </c>
@@ -670,7 +715,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>129</v>
       </c>
@@ -681,7 +726,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>130</v>
       </c>
@@ -689,7 +734,172 @@
         <v>19</v>
       </c>
       <c r="C21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>132</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
         <v>20000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>139</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>141</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>143</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>144</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>26000</v>
       </c>
     </row>
   </sheetData>
